--- a/src/test/resources/testData/AccountCallback.xlsx
+++ b/src/test/resources/testData/AccountCallback.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr/>
   <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fkara\Desktop\workspace\EfecturaTestAutomation\src\test\resources\testData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DDE6976-2AA6-4754-A39F-DD573604AEDD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B9C2E2A-0E69-4DE4-99D2-DE29D0E0F0A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="768" yWindow="768" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="26">
   <si>
     <t>AccountNumber</t>
   </si>
@@ -66,28 +66,43 @@
     <t>5070545544</t>
   </si>
   <si>
+    <t>11-11-2024</t>
+  </si>
+  <si>
+    <t>earning</t>
+  </si>
+  <si>
+    <t>53550</t>
+  </si>
+  <si>
+    <t>200</t>
+  </si>
+  <si>
+    <t>AutomationTest 130</t>
+  </si>
+  <si>
+    <t>AutomationTest 131</t>
+  </si>
+  <si>
+    <t>300</t>
+  </si>
+  <si>
+    <t>AutomationTest 132</t>
+  </si>
+  <si>
     <t>-120</t>
   </si>
   <si>
-    <t>11-11-2024</t>
+    <t/>
+  </si>
+  <si>
+    <t>AutomationTest 133</t>
   </si>
   <si>
     <t>Redemption</t>
   </si>
   <si>
-    <t>Automation Test 16</t>
-  </si>
-  <si>
     <t>54932</t>
-  </si>
-  <si>
-    <t>Automation Test 17</t>
-  </si>
-  <si>
-    <t>Automation Test 18</t>
-  </si>
-  <si>
-    <t>120</t>
   </si>
 </sst>
 </file>
@@ -507,7 +522,7 @@
   <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -557,22 +572,22 @@
         <v>10</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="C2" s="6" t="s">
         <v>11</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="H2" s="5" t="s">
         <v>12</v>

--- a/src/test/resources/testData/AccountCallback.xlsx
+++ b/src/test/resources/testData/AccountCallback.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fkara\Desktop\workspace\EfecturaTestAutomation\src\test\resources\testData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B9C2E2A-0E69-4DE4-99D2-DE29D0E0F0A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AA999A0-4ACF-40C1-A60A-061D2C0130F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="25">
   <si>
     <t>AccountNumber</t>
   </si>
@@ -75,19 +75,16 @@
     <t>53550</t>
   </si>
   <si>
-    <t>200</t>
-  </si>
-  <si>
-    <t>AutomationTest 130</t>
-  </si>
-  <si>
-    <t>AutomationTest 131</t>
-  </si>
-  <si>
     <t>300</t>
   </si>
   <si>
-    <t>AutomationTest 132</t>
+    <t>AutomationTest 135</t>
+  </si>
+  <si>
+    <t>AutomationTest 136</t>
+  </si>
+  <si>
+    <t>AutomationTest 137</t>
   </si>
   <si>
     <t>-120</t>
@@ -96,7 +93,7 @@
     <t/>
   </si>
   <si>
-    <t>AutomationTest 133</t>
+    <t>AutomationTest 138</t>
   </si>
   <si>
     <t>Redemption</t>
@@ -522,7 +519,7 @@
   <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="M4" sqref="M4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -572,22 +569,22 @@
         <v>10</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C2" s="6" t="s">
         <v>11</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E2" s="6" t="s">
         <v>13</v>
       </c>
       <c r="F2" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="G2" s="5" t="s">
         <v>23</v>
-      </c>
-      <c r="G2" s="5" t="s">
-        <v>24</v>
       </c>
       <c r="H2" s="5" t="s">
         <v>12</v>

--- a/src/test/resources/testData/AccountCallback.xlsx
+++ b/src/test/resources/testData/AccountCallback.xlsx
@@ -3,12 +3,12 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr/>
-  <mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fkara\Desktop\workspace\EfecturaTestAutomation\src\test\resources\testData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AA999A0-4ACF-40C1-A60A-061D2C0130F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B6206B4-5D65-414B-836A-8D1AF4DF7CB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,7 +17,7 @@
   </sheets>
   <calcPr calcId="144525"/>
   <extLst>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>AccountNumber</t>
   </si>
@@ -66,7 +66,10 @@
     <t>5070545544</t>
   </si>
   <si>
-    <t>11-11-2024</t>
+    <t>-120</t>
+  </si>
+  <si>
+    <t/>
   </si>
   <si>
     <t>earning</t>
@@ -75,38 +78,13 @@
     <t>53550</t>
   </si>
   <si>
-    <t>300</t>
-  </si>
-  <si>
-    <t>AutomationTest 135</t>
-  </si>
-  <si>
-    <t>AutomationTest 136</t>
-  </si>
-  <si>
-    <t>AutomationTest 137</t>
-  </si>
-  <si>
-    <t>-120</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>AutomationTest 138</t>
-  </si>
-  <si>
-    <t>Redemption</t>
-  </si>
-  <si>
-    <t>54932</t>
+    <t>AutomationTest 145</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -519,20 +497,20 @@
   <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M4" sqref="M4"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="2" width="30.33203125" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" style="2" width="23.109375" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" style="2" width="25.5546875" collapsed="true"/>
-    <col min="4" max="4" style="2" width="9.109375" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" style="2" width="21.5546875" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" style="2" width="18.6640625" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" style="2" width="15.5546875" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" style="2" width="12.88671875" collapsed="true"/>
-    <col min="9" max="16384" style="2" width="9.109375" collapsed="true"/>
+    <col min="1" max="1" width="30.33203125" style="2" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="23.109375" style="2" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="25.5546875" style="2" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="9.109375" style="2" collapsed="1"/>
+    <col min="5" max="5" width="21.5546875" style="2" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="18.6640625" style="2" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="15.5546875" style="2" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="12.88671875" style="2" customWidth="1" collapsed="1"/>
+    <col min="9" max="16384" width="9.109375" style="2" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="16.8" x14ac:dyDescent="0.3">
@@ -569,22 +547,22 @@
         <v>10</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="C2" s="6" t="s">
         <v>11</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="H2" s="5" t="s">
         <v>12</v>

--- a/src/test/resources/testData/AccountCallback.xlsx
+++ b/src/test/resources/testData/AccountCallback.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fkara\Desktop\workspace\EfecturaTestAutomation\src\test\resources\testData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B6206B4-5D65-414B-836A-8D1AF4DF7CB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFE62052-14E7-42AB-820D-111B04047079}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -66,19 +66,19 @@
     <t>5070545544</t>
   </si>
   <si>
-    <t>-120</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
     <t>earning</t>
   </si>
   <si>
     <t>53550</t>
   </si>
   <si>
-    <t>AutomationTest 145</t>
+    <t>300</t>
+  </si>
+  <si>
+    <t>11-11-2024</t>
+  </si>
+  <si>
+    <t>AutomationTest 3000</t>
   </si>
 </sst>
 </file>
@@ -497,7 +497,7 @@
   <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -547,22 +547,22 @@
         <v>10</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C2" s="6" t="s">
         <v>11</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F2" s="5" t="s">
         <v>17</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H2" s="5" t="s">
         <v>12</v>

--- a/src/test/resources/testData/AccountCallback.xlsx
+++ b/src/test/resources/testData/AccountCallback.xlsx
@@ -3,12 +3,12 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fkara\Desktop\workspace\EfecturaTestAutomation\src\test\resources\testData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFE62052-14E7-42AB-820D-111B04047079}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8D35C55-10FA-4052-BC72-4F1325EBBC02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,7 +17,7 @@
   </sheets>
   <calcPr calcId="144525"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="23">
   <si>
     <t>AccountNumber</t>
   </si>
@@ -78,13 +78,29 @@
     <t>11-11-2024</t>
   </si>
   <si>
-    <t>AutomationTest 3000</t>
+    <t>AutomationTest 3003</t>
+  </si>
+  <si>
+    <t>AutomationTest 3004</t>
+  </si>
+  <si>
+    <t>PHTJUNZ5OB</t>
+  </si>
+  <si>
+    <t>R5TK2QGXK1</t>
+  </si>
+  <si>
+    <t>-120</t>
+  </si>
+  <si>
+    <t/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -502,15 +518,15 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="30.33203125" style="2" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="23.109375" style="2" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="25.5546875" style="2" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="9.109375" style="2" collapsed="1"/>
-    <col min="5" max="5" width="21.5546875" style="2" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="18.6640625" style="2" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="15.5546875" style="2" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="12.88671875" style="2" customWidth="1" collapsed="1"/>
-    <col min="9" max="16384" width="9.109375" style="2" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" style="2" width="30.33203125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="2" width="23.109375" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="2" width="25.5546875" collapsed="true"/>
+    <col min="4" max="4" style="2" width="9.109375" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="2" width="21.5546875" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" style="2" width="18.6640625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" style="2" width="15.5546875" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" style="2" width="12.88671875" collapsed="true"/>
+    <col min="9" max="16384" style="2" width="9.109375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="16.8" x14ac:dyDescent="0.3">
@@ -553,13 +569,13 @@
         <v>11</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="G2" s="5" t="s">
         <v>13</v>

--- a/src/test/resources/testData/AccountCallback.xlsx
+++ b/src/test/resources/testData/AccountCallback.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="28">
   <si>
     <t>AccountNumber</t>
   </si>
@@ -94,6 +94,21 @@
   </si>
   <si>
     <t/>
+  </si>
+  <si>
+    <t>FAVNKGX05E</t>
+  </si>
+  <si>
+    <t>T9XEJEJ4UR</t>
+  </si>
+  <si>
+    <t>YYCWE4DCW0</t>
+  </si>
+  <si>
+    <t>Redemption</t>
+  </si>
+  <si>
+    <t>54932</t>
   </si>
 </sst>
 </file>
@@ -563,7 +578,7 @@
         <v>10</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="C2" s="6" t="s">
         <v>11</v>
@@ -572,13 +587,13 @@
         <v>21</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="H2" s="5" t="s">
         <v>12</v>

--- a/src/test/resources/testData/AccountCallback.xlsx
+++ b/src/test/resources/testData/AccountCallback.xlsx
@@ -3,12 +3,12 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr/>
-  <mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fkara\Desktop\workspace\EfecturaTestAutomation\src\test\resources\testData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8D35C55-10FA-4052-BC72-4F1325EBBC02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEB39B2F-370A-4DA9-AD9B-2C104555A31F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,7 +17,7 @@
   </sheets>
   <calcPr calcId="144525"/>
   <extLst>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>AccountNumber</t>
   </si>
@@ -66,56 +66,25 @@
     <t>5070545544</t>
   </si>
   <si>
+    <t>-120</t>
+  </si>
+  <si>
+    <t>11-11-2024</t>
+  </si>
+  <si>
     <t>earning</t>
   </si>
   <si>
     <t>53550</t>
   </si>
   <si>
-    <t>300</t>
-  </si>
-  <si>
-    <t>11-11-2024</t>
-  </si>
-  <si>
-    <t>AutomationTest 3003</t>
-  </si>
-  <si>
-    <t>AutomationTest 3004</t>
-  </si>
-  <si>
-    <t>PHTJUNZ5OB</t>
-  </si>
-  <si>
-    <t>R5TK2QGXK1</t>
-  </si>
-  <si>
-    <t>-120</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>FAVNKGX05E</t>
-  </si>
-  <si>
-    <t>T9XEJEJ4UR</t>
-  </si>
-  <si>
-    <t>YYCWE4DCW0</t>
-  </si>
-  <si>
-    <t>Redemption</t>
-  </si>
-  <si>
-    <t>54932</t>
+    <t>8VU003RVPN</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -528,20 +497,20 @@
   <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="2" width="30.33203125" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" style="2" width="23.109375" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" style="2" width="25.5546875" collapsed="true"/>
-    <col min="4" max="4" style="2" width="9.109375" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" style="2" width="21.5546875" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" style="2" width="18.6640625" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" style="2" width="15.5546875" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" style="2" width="12.88671875" collapsed="true"/>
-    <col min="9" max="16384" style="2" width="9.109375" collapsed="true"/>
+    <col min="1" max="1" width="30.33203125" style="2" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="23.109375" style="2" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="25.5546875" style="2" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="9.109375" style="2" collapsed="1"/>
+    <col min="5" max="5" width="21.5546875" style="2" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="18.6640625" style="2" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="15.5546875" style="2" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="12.88671875" style="2" customWidth="1" collapsed="1"/>
+    <col min="9" max="16384" width="9.109375" style="2" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="16.8" x14ac:dyDescent="0.3">
@@ -578,22 +547,22 @@
         <v>10</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="C2" s="6" t="s">
         <v>11</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="H2" s="5" t="s">
         <v>12</v>

--- a/src/test/resources/testData/AccountCallback.xlsx
+++ b/src/test/resources/testData/AccountCallback.xlsx
@@ -3,12 +3,12 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fkara\Desktop\workspace\EfecturaTestAutomation\src\test\resources\testData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEB39B2F-370A-4DA9-AD9B-2C104555A31F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4D761BA-7E4D-49AD-AD2F-82924E3C2A75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,7 +17,7 @@
   </sheets>
   <calcPr calcId="144525"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="23">
   <si>
     <t>AccountNumber</t>
   </si>
@@ -72,19 +72,35 @@
     <t>11-11-2024</t>
   </si>
   <si>
+    <t>Redemption</t>
+  </si>
+  <si>
+    <t>54932</t>
+  </si>
+  <si>
+    <t>regresyon</t>
+  </si>
+  <si>
+    <t>Z5DC8HKAW8</t>
+  </si>
+  <si>
+    <t>300</t>
+  </si>
+  <si>
     <t>earning</t>
   </si>
   <si>
     <t>53550</t>
   </si>
   <si>
-    <t>8VU003RVPN</t>
+    <t>R7H7ZVEE0A</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -497,20 +513,20 @@
   <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="L5" sqref="L5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="30.33203125" style="2" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="23.109375" style="2" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="25.5546875" style="2" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="9.109375" style="2" collapsed="1"/>
-    <col min="5" max="5" width="21.5546875" style="2" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="18.6640625" style="2" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="15.5546875" style="2" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="12.88671875" style="2" customWidth="1" collapsed="1"/>
-    <col min="9" max="16384" width="9.109375" style="2" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" style="2" width="30.33203125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="2" width="23.109375" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="2" width="25.5546875" collapsed="true"/>
+    <col min="4" max="4" style="2" width="9.109375" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="2" width="21.5546875" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" style="2" width="18.6640625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" style="2" width="15.5546875" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" style="2" width="12.88671875" collapsed="true"/>
+    <col min="9" max="16384" style="2" width="9.109375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="16.8" x14ac:dyDescent="0.3">
@@ -547,22 +563,22 @@
         <v>10</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C2" s="6" t="s">
         <v>11</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="E2" s="6" t="s">
         <v>14</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="H2" s="5" t="s">
         <v>12</v>

--- a/src/test/resources/testData/AccountCallback.xlsx
+++ b/src/test/resources/testData/AccountCallback.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="24">
   <si>
     <t>AccountNumber</t>
   </si>
@@ -94,6 +94,9 @@
   </si>
   <si>
     <t>R7H7ZVEE0A</t>
+  </si>
+  <si>
+    <t>P8BRR414YC</t>
   </si>
 </sst>
 </file>
@@ -575,7 +578,7 @@
         <v>14</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G2" s="5" t="s">
         <v>20</v>

--- a/src/test/resources/testData/AccountCallback.xlsx
+++ b/src/test/resources/testData/AccountCallback.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="32">
   <si>
     <t>AccountNumber</t>
   </si>
@@ -97,6 +97,30 @@
   </si>
   <si>
     <t>P8BRR414YC</t>
+  </si>
+  <si>
+    <t>E5B1CN5M46</t>
+  </si>
+  <si>
+    <t>CUPKPW9DF2</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>GTJM0J660C</t>
+  </si>
+  <si>
+    <t>JGHVB9TNG1</t>
+  </si>
+  <si>
+    <t>C6D6FOCVG3</t>
+  </si>
+  <si>
+    <t>LTFTBV9Q0E</t>
+  </si>
+  <si>
+    <t>LN674YXHJO</t>
   </si>
 </sst>
 </file>
@@ -578,7 +602,7 @@
         <v>14</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="G2" s="5" t="s">
         <v>20</v>

--- a/src/test/resources/testData/AccountCallback.xlsx
+++ b/src/test/resources/testData/AccountCallback.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="35">
   <si>
     <t>AccountNumber</t>
   </si>
@@ -121,6 +121,15 @@
   </si>
   <si>
     <t>LN674YXHJO</t>
+  </si>
+  <si>
+    <t>2P9JZKETWT</t>
+  </si>
+  <si>
+    <t>HNHXHH3J46</t>
+  </si>
+  <si>
+    <t>XYQKH1WNAY</t>
   </si>
 </sst>
 </file>
@@ -590,22 +599,22 @@
         <v>10</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C2" s="6" t="s">
         <v>11</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="E2" s="6" t="s">
         <v>14</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="H2" s="5" t="s">
         <v>12</v>

--- a/src/test/resources/testData/AccountCallback.xlsx
+++ b/src/test/resources/testData/AccountCallback.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="38">
   <si>
     <t>AccountNumber</t>
   </si>
@@ -130,6 +130,15 @@
   </si>
   <si>
     <t>XYQKH1WNAY</t>
+  </si>
+  <si>
+    <t>EOH5S1W7GE</t>
+  </si>
+  <si>
+    <t>JJJHCDVXQX</t>
+  </si>
+  <si>
+    <t>FC57YK5D0G</t>
   </si>
 </sst>
 </file>
@@ -611,7 +620,7 @@
         <v>14</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="G2" s="5" t="s">
         <v>15</v>

--- a/src/test/resources/testData/AccountCallback.xlsx
+++ b/src/test/resources/testData/AccountCallback.xlsx
@@ -1,23 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
   <workbookPr/>
-  <mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fkara\Desktop\workspace\EfecturaTestAutomation\src\test\resources\testData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4D761BA-7E4D-49AD-AD2F-82924E3C2A75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{541FCB90-6568-4063-88A4-3BF7899811D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="15600" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="144525"/>
   <extLst>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>AccountNumber</t>
   </si>
@@ -76,66 +76,6 @@
   </si>
   <si>
     <t>54932</t>
-  </si>
-  <si>
-    <t>regresyon</t>
-  </si>
-  <si>
-    <t>Z5DC8HKAW8</t>
-  </si>
-  <si>
-    <t>300</t>
-  </si>
-  <si>
-    <t>earning</t>
-  </si>
-  <si>
-    <t>53550</t>
-  </si>
-  <si>
-    <t>R7H7ZVEE0A</t>
-  </si>
-  <si>
-    <t>P8BRR414YC</t>
-  </si>
-  <si>
-    <t>E5B1CN5M46</t>
-  </si>
-  <si>
-    <t>CUPKPW9DF2</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>GTJM0J660C</t>
-  </si>
-  <si>
-    <t>JGHVB9TNG1</t>
-  </si>
-  <si>
-    <t>C6D6FOCVG3</t>
-  </si>
-  <si>
-    <t>LTFTBV9Q0E</t>
-  </si>
-  <si>
-    <t>LN674YXHJO</t>
-  </si>
-  <si>
-    <t>2P9JZKETWT</t>
-  </si>
-  <si>
-    <t>HNHXHH3J46</t>
-  </si>
-  <si>
-    <t>XYQKH1WNAY</t>
-  </si>
-  <si>
-    <t>EOH5S1W7GE</t>
-  </si>
-  <si>
-    <t>JJJHCDVXQX</t>
   </si>
   <si>
     <t>FC57YK5D0G</t>
@@ -145,7 +85,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -558,20 +497,20 @@
   <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L5" sqref="L5"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="2" width="30.33203125" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" style="2" width="23.109375" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" style="2" width="25.5546875" collapsed="true"/>
-    <col min="4" max="4" style="2" width="9.109375" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" style="2" width="21.5546875" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" style="2" width="18.6640625" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" style="2" width="15.5546875" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" style="2" width="12.88671875" collapsed="true"/>
-    <col min="9" max="16384" style="2" width="9.109375" collapsed="true"/>
+    <col min="1" max="1" width="30.33203125" style="2" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="23.109375" style="2" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="25.5546875" style="2" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="9.109375" style="2" collapsed="1"/>
+    <col min="5" max="5" width="21.5546875" style="2" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="18.6640625" style="2" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="15.5546875" style="2" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="12.88671875" style="2" customWidth="1" collapsed="1"/>
+    <col min="9" max="16384" width="9.109375" style="2" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="16.8" x14ac:dyDescent="0.3">
@@ -620,7 +559,7 @@
         <v>14</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>37</v>
+        <v>17</v>
       </c>
       <c r="G2" s="5" t="s">
         <v>15</v>

--- a/src/test/resources/testData/AccountCallback.xlsx
+++ b/src/test/resources/testData/AccountCallback.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fkara\Desktop\workspace\EfecturaTestAutomation\src\test\resources\testData\"/>
     </mc:Choice>
@@ -17,7 +17,7 @@
   </sheets>
   <calcPr calcId="144525"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="23">
   <si>
     <t>AccountNumber</t>
   </si>
@@ -79,12 +79,28 @@
   </si>
   <si>
     <t>FC57YK5D0G</t>
+  </si>
+  <si>
+    <t>WORQFQGN2P</t>
+  </si>
+  <si>
+    <t>300</t>
+  </si>
+  <si>
+    <t>earning</t>
+  </si>
+  <si>
+    <t>53550</t>
+  </si>
+  <si>
+    <t>FXC33COQB0</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -502,15 +518,15 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="30.33203125" style="2" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="23.109375" style="2" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="25.5546875" style="2" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="9.109375" style="2" collapsed="1"/>
-    <col min="5" max="5" width="21.5546875" style="2" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="18.6640625" style="2" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="15.5546875" style="2" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="12.88671875" style="2" customWidth="1" collapsed="1"/>
-    <col min="9" max="16384" width="9.109375" style="2" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" style="2" width="30.33203125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="2" width="23.109375" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="2" width="25.5546875" collapsed="true"/>
+    <col min="4" max="4" style="2" width="9.109375" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="2" width="21.5546875" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" style="2" width="18.6640625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" style="2" width="15.5546875" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" style="2" width="12.88671875" collapsed="true"/>
+    <col min="9" max="16384" style="2" width="9.109375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="16.8" x14ac:dyDescent="0.3">
@@ -547,22 +563,22 @@
         <v>10</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C2" s="6" t="s">
         <v>11</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="E2" s="6" t="s">
         <v>14</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="H2" s="5" t="s">
         <v>12</v>

--- a/src/test/resources/testData/AccountCallback.xlsx
+++ b/src/test/resources/testData/AccountCallback.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr/>
-  <mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fkara\Desktop\workspace\EfecturaTestAutomation\src\test\resources\testData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{541FCB90-6568-4063-88A4-3BF7899811D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8143D151-ABD5-47A7-AF04-76CD581D8F9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="15600" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,7 +17,7 @@
   </sheets>
   <calcPr calcId="144525"/>
   <extLst>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>AccountNumber</t>
   </si>
@@ -78,29 +78,13 @@
     <t>54932</t>
   </si>
   <si>
-    <t>FC57YK5D0G</t>
-  </si>
-  <si>
-    <t>WORQFQGN2P</t>
-  </si>
-  <si>
-    <t>300</t>
-  </si>
-  <si>
-    <t>earning</t>
-  </si>
-  <si>
-    <t>53550</t>
-  </si>
-  <si>
-    <t>FXC33COQB0</t>
+    <t>0X34WJUW5M</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -513,20 +497,20 @@
   <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="2" width="30.33203125" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" style="2" width="23.109375" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" style="2" width="25.5546875" collapsed="true"/>
-    <col min="4" max="4" style="2" width="9.109375" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" style="2" width="21.5546875" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" style="2" width="18.6640625" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" style="2" width="15.5546875" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" style="2" width="12.88671875" collapsed="true"/>
-    <col min="9" max="16384" style="2" width="9.109375" collapsed="true"/>
+    <col min="1" max="1" width="30.33203125" style="2" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="23.109375" style="2" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="25.5546875" style="2" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="9.109375" style="2" collapsed="1"/>
+    <col min="5" max="5" width="21.5546875" style="2" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="18.6640625" style="2" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="15.5546875" style="2" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="12.88671875" style="2" customWidth="1" collapsed="1"/>
+    <col min="9" max="16384" width="9.109375" style="2" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="16.8" x14ac:dyDescent="0.3">
@@ -563,22 +547,22 @@
         <v>10</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C2" s="6" t="s">
         <v>11</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="E2" s="6" t="s">
         <v>14</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="H2" s="5" t="s">
         <v>12</v>

--- a/src/test/resources/testData/AccountCallback.xlsx
+++ b/src/test/resources/testData/AccountCallback.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fkara\Desktop\workspace\EfecturaTestAutomation\src\test\resources\testData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8143D151-ABD5-47A7-AF04-76CD581D8F9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2782E9E3-1B01-496E-80D4-48791C438010}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="15600" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -60,25 +60,25 @@
     <t>12345</t>
   </si>
   <si>
-    <t>07-09-2023</t>
-  </si>
-  <si>
     <t>5070545544</t>
   </si>
   <si>
+    <t>11-11-2028</t>
+  </si>
+  <si>
     <t>-120</t>
   </si>
   <si>
-    <t>11-11-2024</t>
-  </si>
-  <si>
     <t>Redemption</t>
   </si>
   <si>
     <t>54932</t>
   </si>
   <si>
-    <t>0X34WJUW5M</t>
+    <t>KGEM3HK9EO</t>
+  </si>
+  <si>
+    <t>22-01-2025</t>
   </si>
 </sst>
 </file>
@@ -497,7 +497,7 @@
   <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -547,25 +547,25 @@
         <v>10</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="D2" s="5" t="s">
         <v>13</v>
       </c>
       <c r="E2" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="F2" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="G2" s="5" t="s">
-        <v>15</v>
-      </c>
       <c r="H2" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I2" s="5" t="s">
         <v>9</v>

--- a/src/test/resources/testData/AccountCallback.xlsx
+++ b/src/test/resources/testData/AccountCallback.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fkara\Desktop\workspace\EfecturaTestAutomation\src\test\resources\testData\"/>
     </mc:Choice>
@@ -17,7 +17,7 @@
   </sheets>
   <calcPr calcId="144525"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="22">
   <si>
     <t>AccountNumber</t>
   </si>
@@ -79,12 +79,25 @@
   </si>
   <si>
     <t>22-01-2025</t>
+  </si>
+  <si>
+    <t>TKXEU6W0YF</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>earning</t>
+  </si>
+  <si>
+    <t>53550</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -502,15 +515,15 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="30.33203125" style="2" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="23.109375" style="2" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="25.5546875" style="2" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="9.109375" style="2" collapsed="1"/>
-    <col min="5" max="5" width="21.5546875" style="2" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="18.6640625" style="2" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="15.5546875" style="2" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="12.88671875" style="2" customWidth="1" collapsed="1"/>
-    <col min="9" max="16384" width="9.109375" style="2" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" style="2" width="30.33203125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="2" width="23.109375" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="2" width="25.5546875" collapsed="true"/>
+    <col min="4" max="4" style="2" width="9.109375" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="2" width="21.5546875" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" style="2" width="18.6640625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" style="2" width="15.5546875" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" style="2" width="12.88671875" collapsed="true"/>
+    <col min="9" max="16384" style="2" width="9.109375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="16.8" x14ac:dyDescent="0.3">
@@ -547,7 +560,7 @@
         <v>10</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="C2" s="6" t="s">
         <v>17</v>
@@ -556,13 +569,13 @@
         <v>13</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="H2" s="5" t="s">
         <v>11</v>

--- a/src/test/resources/testData/AccountCallback.xlsx
+++ b/src/test/resources/testData/AccountCallback.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
   <workbookPr/>
   <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fkara\Desktop\workspace\EfecturaTestAutomation\src\test\resources\testData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2782E9E3-1B01-496E-80D4-48791C438010}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE5EB1FA-1EA6-41B6-A1F9-6F7EDA7B2D7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4044" yWindow="4176" windowWidth="17280" windowHeight="8064" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="27">
   <si>
     <t>AccountNumber</t>
   </si>
@@ -63,34 +63,49 @@
     <t>5070545544</t>
   </si>
   <si>
-    <t>11-11-2028</t>
-  </si>
-  <si>
     <t>-120</t>
   </si>
   <si>
     <t>Redemption</t>
   </si>
   <si>
-    <t>54932</t>
-  </si>
-  <si>
-    <t>KGEM3HK9EO</t>
-  </si>
-  <si>
-    <t>22-01-2025</t>
-  </si>
-  <si>
-    <t>TKXEU6W0YF</t>
-  </si>
-  <si>
     <t/>
   </si>
   <si>
+    <t>294841</t>
+  </si>
+  <si>
+    <t>LVLL117TUY</t>
+  </si>
+  <si>
+    <t>20-02-2025</t>
+  </si>
+  <si>
+    <t>U1PXUYHWRG</t>
+  </si>
+  <si>
+    <t>6D0LXYR6ME</t>
+  </si>
+  <si>
+    <t>300</t>
+  </si>
+  <si>
+    <t>19-11-2028</t>
+  </si>
+  <si>
     <t>earning</t>
   </si>
   <si>
     <t>53550</t>
+  </si>
+  <si>
+    <t>NX1MM6FTHS</t>
+  </si>
+  <si>
+    <t>AHZG5HR339</t>
+  </si>
+  <si>
+    <t>20-03-2026</t>
   </si>
 </sst>
 </file>
@@ -510,7 +525,7 @@
   <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -560,22 +575,22 @@
         <v>10</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="C2" s="6" t="s">
         <v>17</v>
       </c>
       <c r="D2" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="G2" s="5" t="s">
         <v>13</v>
-      </c>
-      <c r="E2" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="G2" s="5" t="s">
-        <v>20</v>
       </c>
       <c r="H2" s="5" t="s">
         <v>11</v>

--- a/src/test/resources/testData/AccountCallback.xlsx
+++ b/src/test/resources/testData/AccountCallback.xlsx
@@ -1,23 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr/>
-  <mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fkara\Desktop\workspace\EfecturaTestAutomation\src\test\resources\testData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE5EB1FA-1EA6-41B6-A1F9-6F7EDA7B2D7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DBF8822-CC48-4993-8AEB-BA392D46A784}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4044" yWindow="4176" windowWidth="17280" windowHeight="8064" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3936" yWindow="3360" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="144525"/>
   <extLst>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>AccountNumber</t>
   </si>
@@ -66,53 +66,25 @@
     <t>-120</t>
   </si>
   <si>
-    <t>Redemption</t>
-  </si>
-  <si>
     <t/>
   </si>
   <si>
-    <t>294841</t>
-  </si>
-  <si>
-    <t>LVLL117TUY</t>
-  </si>
-  <si>
     <t>20-02-2025</t>
   </si>
   <si>
-    <t>U1PXUYHWRG</t>
-  </si>
-  <si>
-    <t>6D0LXYR6ME</t>
-  </si>
-  <si>
-    <t>300</t>
-  </si>
-  <si>
-    <t>19-11-2028</t>
-  </si>
-  <si>
     <t>earning</t>
   </si>
   <si>
     <t>53550</t>
   </si>
   <si>
-    <t>NX1MM6FTHS</t>
-  </si>
-  <si>
-    <t>AHZG5HR339</t>
-  </si>
-  <si>
-    <t>20-03-2026</t>
+    <t>BJLSLAOV5X</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -525,20 +497,20 @@
   <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="2" width="30.33203125" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" style="2" width="23.109375" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" style="2" width="25.5546875" collapsed="true"/>
-    <col min="4" max="4" style="2" width="9.109375" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" style="2" width="21.5546875" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" style="2" width="18.6640625" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" style="2" width="15.5546875" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" style="2" width="12.88671875" collapsed="true"/>
-    <col min="9" max="16384" style="2" width="9.109375" collapsed="true"/>
+    <col min="1" max="1" width="30.33203125" style="2" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="23.109375" style="2" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="25.5546875" style="2" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="9.109375" style="2" collapsed="1"/>
+    <col min="5" max="5" width="21.5546875" style="2" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="18.6640625" style="2" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="15.5546875" style="2" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="12.88671875" style="2" customWidth="1" collapsed="1"/>
+    <col min="9" max="16384" width="9.109375" style="2" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="16.8" x14ac:dyDescent="0.3">
@@ -575,22 +547,22 @@
         <v>10</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D2" s="5" t="s">
         <v>12</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="H2" s="5" t="s">
         <v>11</v>
@@ -603,7 +575,6 @@
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
       <c r="E3" s="1"/>
-      <c r="F3"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B4" s="1"/>

--- a/src/test/resources/testData/AccountCallback.xlsx
+++ b/src/test/resources/testData/AccountCallback.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fkara\Desktop\workspace\EfecturaTestAutomation\src\test\resources\testData\"/>
     </mc:Choice>
@@ -17,7 +17,7 @@
   </sheets>
   <calcPr calcId="144525"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="21">
   <si>
     <t>AccountNumber</t>
   </si>
@@ -79,12 +79,22 @@
   </si>
   <si>
     <t>BJLSLAOV5X</t>
+  </si>
+  <si>
+    <t>3XFQY4OGXA</t>
+  </si>
+  <si>
+    <t>300</t>
+  </si>
+  <si>
+    <t>19-11-2028</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -502,15 +512,15 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="30.33203125" style="2" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="23.109375" style="2" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="25.5546875" style="2" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="9.109375" style="2" collapsed="1"/>
-    <col min="5" max="5" width="21.5546875" style="2" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="18.6640625" style="2" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="15.5546875" style="2" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="12.88671875" style="2" customWidth="1" collapsed="1"/>
-    <col min="9" max="16384" width="9.109375" style="2" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" style="2" width="30.33203125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="2" width="23.109375" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="2" width="25.5546875" collapsed="true"/>
+    <col min="4" max="4" style="2" width="9.109375" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="2" width="21.5546875" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" style="2" width="18.6640625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" style="2" width="15.5546875" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" style="2" width="12.88671875" collapsed="true"/>
+    <col min="9" max="16384" style="2" width="9.109375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="16.8" x14ac:dyDescent="0.3">
@@ -553,13 +563,13 @@
         <v>14</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G2" s="5" t="s">
         <v>15</v>

--- a/src/test/resources/testData/AccountCallback.xlsx
+++ b/src/test/resources/testData/AccountCallback.xlsx
@@ -1,23 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
   <workbookPr/>
-  <mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fkara\Desktop\workspace\EfecturaTestAutomation\src\test\resources\testData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fkara\Desktop\workspace1\EfecturaTestAutomation\src\test\resources\testData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DBF8822-CC48-4993-8AEB-BA392D46A784}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46A7DB29-97C5-4970-B332-F1A4E7556352}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3936" yWindow="3360" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="144525"/>
   <extLst>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>AccountNumber</t>
   </si>
@@ -63,12 +63,6 @@
     <t>5070545544</t>
   </si>
   <si>
-    <t>-120</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
     <t>20-02-2025</t>
   </si>
   <si>
@@ -76,9 +70,6 @@
   </si>
   <si>
     <t>53550</t>
-  </si>
-  <si>
-    <t>BJLSLAOV5X</t>
   </si>
   <si>
     <t>3XFQY4OGXA</t>
@@ -94,7 +85,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -507,20 +497,20 @@
   <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="2" width="30.33203125" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" style="2" width="23.109375" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" style="2" width="25.5546875" collapsed="true"/>
-    <col min="4" max="4" style="2" width="9.109375" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" style="2" width="21.5546875" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" style="2" width="18.6640625" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" style="2" width="15.5546875" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" style="2" width="12.88671875" collapsed="true"/>
-    <col min="9" max="16384" style="2" width="9.109375" collapsed="true"/>
+    <col min="1" max="1" width="30.33203125" style="2" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="23.109375" style="2" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="25.5546875" style="2" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="9.109375" style="2" collapsed="1"/>
+    <col min="5" max="5" width="21.5546875" style="2" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="18.6640625" style="2" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="15.5546875" style="2" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="12.88671875" style="2" customWidth="1" collapsed="1"/>
+    <col min="9" max="16384" width="9.109375" style="2" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="16.8" x14ac:dyDescent="0.3">
@@ -557,22 +547,22 @@
         <v>10</v>
       </c>
       <c r="B2" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C2" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>19</v>
-      </c>
       <c r="E2" s="6" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H2" s="5" t="s">
         <v>11</v>
